--- a/실무_엑셀_예제_파일/Chapter06/06-011.xlsx
+++ b/실무_엑셀_예제_파일/Chapter06/06-011.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\9. 내 드롭박스\@. #오빠두\# 홈페이지 공유파일\1. 엑셀 - 무료강의\진짜쓰는 실무엑셀\Chapter06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2F1662-49D2-40AA-8AEB-E234709E6327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6D3ED2-0693-4D48-B247-3D80BA5F7251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{76177724-D468-435D-9D22-6CBD9426B912}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{76177724-D468-435D-9D22-6CBD9426B912}"/>
   </bookViews>
   <sheets>
     <sheet name="계산필드" sheetId="2" r:id="rId1"/>
@@ -24,9 +24,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="99" r:id="rId4"/>
-    <pivotCache cacheId="100" r:id="rId5"/>
-    <pivotCache cacheId="101" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="7" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="35">
   <si>
     <t>지점명</t>
   </si>
@@ -149,6 +149,18 @@
   <si>
     <t xml:space="preserve">매출이익률 </t>
   </si>
+  <si>
+    <t>전체 합계 : 매출액</t>
+  </si>
+  <si>
+    <t>전체 합계 : 매출이익률</t>
+  </si>
+  <si>
+    <t>합계 : 매출이익률</t>
+  </si>
+  <si>
+    <t>20~21년 차이</t>
+  </si>
 </sst>
 </file>
 
@@ -158,7 +170,7 @@
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;년&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +208,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -240,7 +260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -250,31 +270,31 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
@@ -292,121 +312,43 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="33">
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <font>
+        <i/>
+        <family val="3"/>
+      </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <font>
+        <i/>
+        <family val="3"/>
+      </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" relativeIndent="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" relativeIndent="1"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="0.0%"/>
@@ -793,7 +735,7 @@
   <cacheSource type="worksheet">
     <worksheetSource name="표2"/>
   </cacheSource>
-  <cacheFields count="7">
+  <cacheFields count="6">
     <cacheField name="지역" numFmtId="0">
       <sharedItems/>
     </cacheField>
@@ -807,31 +749,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="기준년도" numFmtId="177">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-01-01T00:00:00" maxDate="2021-01-02T00:00:00" count="4">
+      <sharedItems containsNonDate="0" containsDate="1" containsMixedTypes="1" minDate="2018-01-01T00:00:00" maxDate="2021-01-02T00:00:00" count="5">
         <d v="2018-01-01T00:00:00"/>
         <d v="2019-01-01T00:00:00"/>
         <d v="2020-01-01T00:00:00"/>
         <d v="2021-01-01T00:00:00"/>
+        <s v="20~21년 차이" f="1"/>
       </sharedItems>
-      <fieldGroup par="6" base="2">
-        <rangePr groupBy="months" startDate="2018-01-01T00:00:00" endDate="2021-01-02T00:00:00"/>
-        <groupItems count="14">
-          <s v="&lt;2018-01-01"/>
-          <s v="1월"/>
-          <s v="2월"/>
-          <s v="3월"/>
-          <s v="4월"/>
-          <s v="5월"/>
-          <s v="6월"/>
-          <s v="7월"/>
-          <s v="8월"/>
-          <s v="9월"/>
-          <s v="10월"/>
-          <s v="11월"/>
-          <s v="12월"/>
-          <s v="&gt;2021-01-02"/>
-        </groupItems>
-      </fieldGroup>
     </cacheField>
     <cacheField name="매출액" numFmtId="3">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6000" maxValue="39000"/>
@@ -842,20 +766,18 @@
     <cacheField name="예약률" numFmtId="176">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.36399999999999999" maxValue="0.78700000000000003"/>
     </cacheField>
-    <cacheField name="연" numFmtId="0" databaseField="0">
-      <fieldGroup base="2">
-        <rangePr groupBy="years" startDate="2018-01-01T00:00:00" endDate="2021-01-02T00:00:00"/>
-        <groupItems count="6">
-          <s v="&lt;2018-01-01"/>
-          <s v="2018년"/>
-          <s v="2019년"/>
-          <s v="2020년"/>
-          <s v="2021년"/>
-          <s v="&gt;2021-01-02"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
   </cacheFields>
+  <calculatedItems count="1">
+    <calculatedItem formula="기준년도['1/1/2021'] -기준년도['1/1/2020']">
+      <pivotArea cacheIndex="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </calculatedItem>
+  </calculatedItems>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
       <x14:pivotCacheDefinition/>
@@ -869,7 +791,7 @@
   <cacheSource type="worksheet">
     <worksheetSource name="표1"/>
   </cacheSource>
-  <cacheFields count="8">
+  <cacheFields count="9">
     <cacheField name="지역" numFmtId="0">
       <sharedItems/>
     </cacheField>
@@ -944,6 +866,7 @@
         </groupItems>
       </fieldGroup>
     </cacheField>
+    <cacheField name="매출이익률" numFmtId="0" formula="매출이익 /매출액" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -1449,9 +1372,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{719F46E8-04D3-4016-94AA-E8E817903FE5}" name="피벗 테이블1" cacheId="101" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J6:P12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{719F46E8-04D3-4016-94AA-E8E817903FE5}" name="피벗 테이블1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" errorCaption="0" showError="1" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J6:V13" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="9">
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="6">
@@ -1507,6 +1430,7 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="3">
     <field x="7"/>
@@ -1530,31 +1454,56 @@
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
+  <colFields count="2">
     <field x="1"/>
+    <field x="-2"/>
   </colFields>
-  <colItems count="6">
+  <colItems count="12">
     <i>
       <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
     </i>
     <i>
       <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
     </i>
     <i>
       <x v="3"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
     </i>
     <i>
       <x v="4"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
     </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
   </colItems>
-  <dataFields count="1">
+  <dataFields count="2">
     <dataField name="합계 : 매출액" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="합계 : 매출이익률" fld="8" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1569,9 +1518,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{51FF64B6-F39D-4382-BEE4-A82E0A10189A}" name="피벗 테이블1" cacheId="100" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="7" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J6:P12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{51FF64B6-F39D-4382-BEE4-A82E0A10189A}" name="피벗 테이블1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J6:P13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="6">
@@ -1584,44 +1533,26 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" numFmtId="177" showAll="0">
-      <items count="15">
+      <items count="6">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
+        <item f="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" numFmtId="3" showAll="0"/>
     <pivotField numFmtId="3" showAll="0"/>
     <pivotField numFmtId="176" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
   </pivotFields>
-  <rowFields count="2">
-    <field x="6"/>
+  <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -1664,25 +1595,61 @@
   <dataFields count="1">
     <dataField name="합계 : 매출액" fld="3" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
-  <formats count="5">
-    <format dxfId="57">
+  <formats count="9">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="25">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="24">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -1698,7 +1665,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92BCB7ED-2741-4C02-BDE8-C4CEE85AAD93}" name="피벗 테이블1" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="7" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92BCB7ED-2741-4C02-BDE8-C4CEE85AAD93}" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="7" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J6:AB14" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -1821,26 +1788,26 @@
     <dataField name="매출이익률 " fld="6" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="46">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="14">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="13">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="10">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -1863,45 +1830,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{580C0556-BA28-437C-8FBF-7ACB756ED5D9}" name="표1" displayName="표1" ref="B6:G26" totalsRowShown="0" headerRowDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{580C0556-BA28-437C-8FBF-7ACB756ED5D9}" name="표1" displayName="표1" ref="B6:G26" totalsRowShown="0" headerRowDxfId="32">
   <autoFilter ref="B6:G26" xr:uid="{580C0556-BA28-437C-8FBF-7ACB756ED5D9}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B1BB6945-AE7B-4A30-B8E3-0D47C73F792E}" name="지역"/>
-    <tableColumn id="2" xr3:uid="{E74E3026-4DE7-4FBB-ADAB-74E9FD502760}" name="지점명" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{C50201F4-59B9-425A-B246-AAC7E397D7C6}" name="기준년도" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{8E2988A8-0BD5-4006-AB44-0BC2C3C5FB6B}" name="매출액" dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{F83E9C7F-3FB0-4296-8EDF-B54A068DB938}" name="매출이익" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{B79CE993-1796-4506-9F65-6E40316B0DBE}" name="예약률" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{E74E3026-4DE7-4FBB-ADAB-74E9FD502760}" name="지점명" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{C50201F4-59B9-425A-B246-AAC7E397D7C6}" name="기준년도" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{8E2988A8-0BD5-4006-AB44-0BC2C3C5FB6B}" name="매출액" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{F83E9C7F-3FB0-4296-8EDF-B54A068DB938}" name="매출이익" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{B79CE993-1796-4506-9F65-6E40316B0DBE}" name="예약률" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C5083BC6-4556-4DD0-962D-6B8DE97191A5}" name="표2" displayName="표2" ref="B6:G26" totalsRowShown="0" headerRowDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C5083BC6-4556-4DD0-962D-6B8DE97191A5}" name="표2" displayName="표2" ref="B6:G26" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="B6:G26" xr:uid="{580C0556-BA28-437C-8FBF-7ACB756ED5D9}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{73F8770C-3369-4033-8DDD-DA6FEBC578A0}" name="지역"/>
-    <tableColumn id="2" xr3:uid="{351B3398-C398-4557-B4D2-98E116731A92}" name="지점명" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{41D55B44-A962-44D9-A4B4-661DFA64A44E}" name="기준년도" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{8E62059B-A754-4F43-92E4-32FF5ACBE439}" name="매출액" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{50319ADC-E7F6-4BCE-9CE4-A868453B6174}" name="매출이익" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{8C460BF3-8BB6-45DC-B437-17A8C434C8B7}" name="예약률" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{351B3398-C398-4557-B4D2-98E116731A92}" name="지점명" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{41D55B44-A962-44D9-A4B4-661DFA64A44E}" name="기준년도" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{8E62059B-A754-4F43-92E4-32FF5ACBE439}" name="매출액" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{50319ADC-E7F6-4BCE-9CE4-A868453B6174}" name="매출이익" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{8C460BF3-8BB6-45DC-B437-17A8C434C8B7}" name="예약률" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6DB8BC9B-01E1-40A6-8B3E-3BFF040F9399}" name="표3" displayName="표3" ref="B6:G26" totalsRowShown="0" headerRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6DB8BC9B-01E1-40A6-8B3E-3BFF040F9399}" name="표3" displayName="표3" ref="B6:G26" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="B6:G26" xr:uid="{580C0556-BA28-437C-8FBF-7ACB756ED5D9}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E9D9F66D-7D70-4AB6-AF7D-FB39AF09384C}" name="지역"/>
-    <tableColumn id="2" xr3:uid="{9E96819B-4896-44FD-8322-5122B8335DD9}" name="지점명" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{94579766-B5FD-4360-B7BA-201062813E46}" name="기준년도" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{505E609F-6C4D-4B08-B406-6FD898733CE7}" name="매출액" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{FD13E37B-B343-4A35-B934-89988CD3F8CC}" name="매출이익" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{5E79112D-688F-4FB5-8E98-9E10D4AF76BA}" name="예약률" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{9E96819B-4896-44FD-8322-5122B8335DD9}" name="지점명" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{94579766-B5FD-4360-B7BA-201062813E46}" name="기준년도" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{505E609F-6C4D-4B08-B406-6FD898733CE7}" name="매출액" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{FD13E37B-B343-4A35-B934-89988CD3F8CC}" name="매출이익" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{5E79112D-688F-4FB5-8E98-9E10D4AF76BA}" name="예약률" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2204,47 +2171,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01165CF1-A5B6-4E19-8ADC-07AE43AEF6EA}">
-  <dimension ref="B1:P39"/>
+  <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="3" width="10.75" customWidth="1"/>
     <col min="4" max="4" width="10.75" style="6" customWidth="1"/>
     <col min="5" max="7" width="10.75" customWidth="1"/>
     <col min="8" max="8" width="2.75" customWidth="1"/>
-    <col min="9" max="9" width="3.625" customWidth="1"/>
-    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.58203125" customWidth="1"/>
+    <col min="10" max="10" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.4140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.4140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="2:22" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:22" ht="21.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="2:16" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="2:22" ht="9" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" ht="3" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
@@ -2262,9 +2236,6 @@
       </c>
       <c r="G6" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>18</v>
@@ -2275,7 +2246,7 @@
       <c r="O6"/>
       <c r="P6"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -2294,29 +2265,32 @@
       <c r="G7" s="4">
         <v>0.36399999999999999</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="K7" t="s">
         <v>4</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7"/>
+      <c r="M7" t="s">
         <v>2</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7"/>
+      <c r="O7" t="s">
         <v>3</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7"/>
+      <c r="Q7" t="s">
         <v>5</v>
       </c>
-      <c r="O7" t="s">
+      <c r="S7" t="s">
         <v>1</v>
       </c>
-      <c r="P7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="U7" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -2335,29 +2309,41 @@
       <c r="G8" s="4">
         <v>0.442</v>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="17">
-        <v>30000</v>
-      </c>
-      <c r="L8" s="17">
-        <v>0</v>
-      </c>
-      <c r="M8" s="17">
-        <v>33000</v>
-      </c>
-      <c r="N8" s="17">
-        <v>39000</v>
-      </c>
-      <c r="O8" s="17">
-        <v>0</v>
-      </c>
-      <c r="P8" s="17">
-        <v>102000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -2377,28 +2363,46 @@
         <v>0.63400000000000001</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="17">
-        <v>8000</v>
-      </c>
-      <c r="L9" s="17">
-        <v>6000</v>
-      </c>
-      <c r="M9" s="17">
-        <v>11000</v>
-      </c>
-      <c r="N9" s="17">
-        <v>9000</v>
-      </c>
-      <c r="O9" s="17">
-        <v>17000</v>
-      </c>
-      <c r="P9" s="17">
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="K9" s="18">
+        <v>30000</v>
+      </c>
+      <c r="L9" s="16">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="M9" s="18">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <v>0</v>
+      </c>
+      <c r="O9" s="18">
+        <v>33000</v>
+      </c>
+      <c r="P9" s="16">
+        <v>4.3939393939393938E-2</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>39000</v>
+      </c>
+      <c r="R9" s="16">
+        <v>2.5384615384615384E-2</v>
+      </c>
+      <c r="S9" s="18">
+        <v>0</v>
+      </c>
+      <c r="T9" s="16">
+        <v>0</v>
+      </c>
+      <c r="U9" s="18">
+        <v>102000</v>
+      </c>
+      <c r="V9" s="16">
+        <v>3.8509803921568629E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -2418,28 +2422,46 @@
         <v>0.41599999999999998</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="17">
-        <v>26000</v>
-      </c>
-      <c r="L10" s="17">
-        <v>25000</v>
-      </c>
-      <c r="M10" s="17">
-        <v>33000</v>
-      </c>
-      <c r="N10" s="17">
+        <v>21</v>
+      </c>
+      <c r="K10" s="18">
+        <v>8000</v>
+      </c>
+      <c r="L10" s="16">
+        <v>0.169625</v>
+      </c>
+      <c r="M10" s="18">
+        <v>6000</v>
+      </c>
+      <c r="N10" s="16">
+        <v>0.25516666666666665</v>
+      </c>
+      <c r="O10" s="18">
         <v>11000</v>
       </c>
-      <c r="O10" s="17">
-        <v>15000</v>
-      </c>
-      <c r="P10" s="17">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P10" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>9000</v>
+      </c>
+      <c r="R10" s="16">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S10" s="18">
+        <v>17000</v>
+      </c>
+      <c r="T10" s="16">
+        <v>0.12223529411764705</v>
+      </c>
+      <c r="U10" s="18">
+        <v>51000</v>
+      </c>
+      <c r="V10" s="16">
+        <v>0.15133333333333332</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -2459,28 +2481,46 @@
         <v>0.70299999999999996</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="17">
-        <v>19000</v>
-      </c>
-      <c r="L11" s="17">
-        <v>34000</v>
-      </c>
-      <c r="M11" s="17">
+        <v>22</v>
+      </c>
+      <c r="K11" s="18">
+        <v>26000</v>
+      </c>
+      <c r="L11" s="16">
+        <v>6.0576923076923077E-2</v>
+      </c>
+      <c r="M11" s="18">
+        <v>25000</v>
+      </c>
+      <c r="N11" s="16">
+        <v>7.9759999999999998E-2</v>
+      </c>
+      <c r="O11" s="18">
+        <v>33000</v>
+      </c>
+      <c r="P11" s="16">
+        <v>2.518181818181818E-2</v>
+      </c>
+      <c r="Q11" s="18">
         <v>11000</v>
       </c>
-      <c r="N11" s="17">
-        <v>19000</v>
-      </c>
-      <c r="O11" s="17">
-        <v>30000</v>
-      </c>
-      <c r="P11" s="17">
-        <v>113000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R11" s="16">
+        <v>0.17890909090909091</v>
+      </c>
+      <c r="S11" s="18">
+        <v>15000</v>
+      </c>
+      <c r="T11" s="16">
+        <v>0.14180000000000001</v>
+      </c>
+      <c r="U11" s="18">
+        <v>110000</v>
+      </c>
+      <c r="V11" s="16">
+        <v>7.7227272727272728E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -2500,28 +2540,46 @@
         <v>0.78700000000000003</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="17">
-        <v>83000</v>
-      </c>
-      <c r="L12" s="17">
-        <v>65000</v>
-      </c>
-      <c r="M12" s="17">
-        <v>88000</v>
-      </c>
-      <c r="N12" s="17">
-        <v>78000</v>
-      </c>
-      <c r="O12" s="17">
-        <v>62000</v>
-      </c>
-      <c r="P12" s="17">
-        <v>376000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="K12" s="18">
+        <v>19000</v>
+      </c>
+      <c r="L12" s="16">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="M12" s="18">
+        <v>34000</v>
+      </c>
+      <c r="N12" s="16">
+        <v>4.5647058823529409E-2</v>
+      </c>
+      <c r="O12" s="18">
+        <v>11000</v>
+      </c>
+      <c r="P12" s="16">
+        <v>0.20281818181818181</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>19000</v>
+      </c>
+      <c r="R12" s="16">
+        <v>0.12631578947368421</v>
+      </c>
+      <c r="S12" s="18">
+        <v>30000</v>
+      </c>
+      <c r="T12" s="16">
+        <v>8.2033333333333333E-2</v>
+      </c>
+      <c r="U12" s="18">
+        <v>113000</v>
+      </c>
+      <c r="V12" s="16">
+        <v>9.2973451327433634E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -2540,14 +2598,47 @@
       <c r="G13" s="4">
         <v>0.39700000000000002</v>
       </c>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="18">
+        <v>83000</v>
+      </c>
+      <c r="L13" s="16">
+        <v>7.5686746987951803E-2</v>
+      </c>
+      <c r="M13" s="18">
+        <v>65000</v>
+      </c>
+      <c r="N13" s="16">
+        <v>7.8107692307692309E-2</v>
+      </c>
+      <c r="O13" s="18">
+        <v>88000</v>
+      </c>
+      <c r="P13" s="16">
+        <v>7.2522727272727266E-2</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>78000</v>
+      </c>
+      <c r="R13" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="S13" s="18">
+        <v>62000</v>
+      </c>
+      <c r="T13" s="16">
+        <v>0.10751612903225806</v>
+      </c>
+      <c r="U13" s="18">
+        <v>376000</v>
+      </c>
+      <c r="V13" s="16">
+        <v>8.1507978723404262E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -2573,7 +2664,7 @@
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -2599,7 +2690,7 @@
       <c r="O15"/>
       <c r="P15"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -2625,7 +2716,7 @@
       <c r="O16"/>
       <c r="P16"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -2647,7 +2738,7 @@
       <c r="K17"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -2669,7 +2760,7 @@
       <c r="K18"/>
       <c r="L18"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -2691,7 +2782,7 @@
       <c r="K19"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>15</v>
       </c>
@@ -2713,7 +2804,7 @@
       <c r="K20"/>
       <c r="L20"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>14</v>
       </c>
@@ -2735,7 +2826,7 @@
       <c r="K21"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>13</v>
       </c>
@@ -2757,7 +2848,7 @@
       <c r="K22"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>13</v>
       </c>
@@ -2779,7 +2870,7 @@
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>14</v>
       </c>
@@ -2799,7 +2890,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -2819,7 +2910,7 @@
         <v>0.65600000000000003</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>14</v>
       </c>
@@ -2839,43 +2930,43 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I39" s="2"/>
     </row>
   </sheetData>
@@ -2893,41 +2984,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D228209-C595-43E1-AD2D-758DC101B389}">
-  <dimension ref="B1:P39"/>
+  <dimension ref="B1:Q39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="3" width="10.75" customWidth="1"/>
     <col min="4" max="4" width="10.75" style="6" customWidth="1"/>
     <col min="5" max="7" width="10.75" customWidth="1"/>
     <col min="8" max="8" width="2.75" customWidth="1"/>
-    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="3.58203125" customWidth="1"/>
     <col min="10" max="10" width="15.25" customWidth="1"/>
-    <col min="11" max="16" width="8.625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="8.58203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.25" style="2" customWidth="1"/>
+    <col min="14" max="16" width="8.58203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="2:17" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:17" ht="21.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="2:16" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="2:17" ht="9" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" ht="3" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
@@ -2953,7 +3048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -2994,7 +3089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -3013,8 +3108,8 @@
       <c r="G8" s="4">
         <v>0.442</v>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>20</v>
+      <c r="J8" s="15">
+        <v>43101</v>
       </c>
       <c r="K8" s="2">
         <v>30000</v>
@@ -3035,7 +3130,7 @@
         <v>156000</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -3054,8 +3149,8 @@
       <c r="G9" s="4">
         <v>0.63400000000000001</v>
       </c>
-      <c r="J9" s="14" t="s">
-        <v>21</v>
+      <c r="J9" s="15">
+        <v>43466</v>
       </c>
       <c r="K9" s="2">
         <v>8000</v>
@@ -3076,7 +3171,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -3095,8 +3190,8 @@
       <c r="G10" s="4">
         <v>0.41599999999999998</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>22</v>
+      <c r="J10" s="15">
+        <v>43831</v>
       </c>
       <c r="K10" s="2">
         <v>26000</v>
@@ -3117,7 +3212,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -3136,8 +3231,8 @@
       <c r="G11" s="4">
         <v>0.70299999999999996</v>
       </c>
-      <c r="J11" s="14" t="s">
-        <v>23</v>
+      <c r="J11" s="15">
+        <v>44197</v>
       </c>
       <c r="K11" s="2">
         <v>19000</v>
@@ -3158,7 +3253,7 @@
         <v>113000</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3177,29 +3272,30 @@
       <c r="G12" s="4">
         <v>0.78700000000000003</v>
       </c>
-      <c r="J12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="2">
-        <v>83000</v>
-      </c>
-      <c r="L12" s="2">
-        <v>102000</v>
-      </c>
-      <c r="M12" s="2">
-        <v>88000</v>
-      </c>
-      <c r="N12" s="2">
-        <v>78000</v>
-      </c>
-      <c r="O12" s="2">
-        <v>79000</v>
-      </c>
-      <c r="P12" s="2">
-        <v>430000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="20">
+        <v>-7000</v>
+      </c>
+      <c r="L12" s="20">
+        <v>9000</v>
+      </c>
+      <c r="M12" s="20">
+        <v>-22000</v>
+      </c>
+      <c r="N12" s="20">
+        <v>8000</v>
+      </c>
+      <c r="O12" s="20">
+        <v>15000</v>
+      </c>
+      <c r="P12" s="20">
+        <v>3000</v>
+      </c>
+      <c r="Q12" s="21"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -3218,14 +3314,29 @@
       <c r="G13" s="4">
         <v>0.39700000000000002</v>
       </c>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="2">
+        <v>76000</v>
+      </c>
+      <c r="L13" s="2">
+        <v>111000</v>
+      </c>
+      <c r="M13" s="2">
+        <v>66000</v>
+      </c>
+      <c r="N13" s="2">
+        <v>86000</v>
+      </c>
+      <c r="O13" s="2">
+        <v>94000</v>
+      </c>
+      <c r="P13" s="2">
+        <v>433000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -3251,7 +3362,7 @@
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -3277,7 +3388,7 @@
       <c r="O15"/>
       <c r="P15"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -3303,7 +3414,7 @@
       <c r="O16"/>
       <c r="P16"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -3323,7 +3434,7 @@
         <v>0.60899999999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -3343,7 +3454,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -3363,7 +3474,7 @@
         <v>0.47299999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>15</v>
       </c>
@@ -3383,7 +3494,7 @@
         <v>0.77700000000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>14</v>
       </c>
@@ -3403,7 +3514,7 @@
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>13</v>
       </c>
@@ -3423,7 +3534,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>13</v>
       </c>
@@ -3443,7 +3554,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>14</v>
       </c>
@@ -3463,7 +3574,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -3483,7 +3594,7 @@
         <v>0.65600000000000003</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>14</v>
       </c>
@@ -3503,43 +3614,43 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I39" s="2"/>
     </row>
   </sheetData>
@@ -3560,38 +3671,38 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="3" width="10.75" customWidth="1"/>
     <col min="4" max="4" width="10.75" style="6" customWidth="1"/>
     <col min="5" max="7" width="10.75" customWidth="1"/>
     <col min="8" max="8" width="2.75" customWidth="1"/>
-    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="3.58203125" customWidth="1"/>
     <col min="10" max="10" width="11.25" customWidth="1"/>
     <col min="11" max="16" width="11.25" style="2" customWidth="1"/>
     <col min="17" max="28" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:28" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="2:28" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:28" ht="21.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="2:28" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="2:28" ht="9" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:28" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:28" ht="3" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
@@ -3627,7 +3738,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
     </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -3677,7 +3788,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -3748,7 +3859,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
     </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -3825,7 +3936,7 @@
         <v>4.766025641025641E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -3902,7 +4013,7 @@
         <v>0.15133333333333332</v>
       </c>
     </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -3979,7 +4090,7 @@
         <v>7.7227272727272728E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -4056,7 +4167,7 @@
         <v>9.2973451327433634E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -4133,7 +4244,7 @@
         <v>0.67033333333333334</v>
       </c>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -4210,7 +4321,7 @@
         <v>8.3521939953810617E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -4236,7 +4347,7 @@
       <c r="O15"/>
       <c r="P15"/>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -4262,7 +4373,7 @@
       <c r="O16"/>
       <c r="P16"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -4282,7 +4393,7 @@
         <v>0.60899999999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -4302,7 +4413,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -4322,7 +4433,7 @@
         <v>0.47299999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>15</v>
       </c>
@@ -4342,7 +4453,7 @@
         <v>0.77700000000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>14</v>
       </c>
@@ -4362,7 +4473,7 @@
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>13</v>
       </c>
@@ -4382,7 +4493,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>13</v>
       </c>
@@ -4402,7 +4513,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>14</v>
       </c>
@@ -4422,7 +4533,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -4442,7 +4553,7 @@
         <v>0.65600000000000003</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>14</v>
       </c>
@@ -4462,43 +4573,43 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I39" s="2"/>
     </row>
   </sheetData>
